--- a/Flipcart_EndToEnd_Testing/src/test/resources/TestData/TestData.xlsx
+++ b/Flipcart_EndToEnd_Testing/src/test/resources/TestData/TestData.xlsx
@@ -12,7 +12,7 @@
   <calcPr calcId="0"/>
   <oleSize ref="A1"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="9">
   <si>
     <t>Mobile</t>
   </si>
@@ -44,12 +44,16 @@
   </si>
   <si>
     <t>soap</t>
+  </si>
+  <si>
+    <t>Passed</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <numFmts count="0"/>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -361,7 +365,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A8"/>
+  <dimension ref="A1:B8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="H10" sqref="H10"/>
@@ -370,43 +374,67 @@
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
+      <c r="A1" t="s" s="0">
         <v>6</v>
       </c>
+      <c r="B1" t="s" s="0">
+        <v>8</v>
+      </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
+      <c r="A2" t="s" s="0">
         <v>0</v>
       </c>
+      <c r="B2" t="s" s="0">
+        <v>8</v>
+      </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
+      <c r="A3" t="s" s="0">
         <v>1</v>
       </c>
+      <c r="B3" t="s" s="0">
+        <v>8</v>
+      </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
+      <c r="A4" t="s" s="0">
         <v>2</v>
       </c>
+      <c r="B4" t="s" s="0">
+        <v>8</v>
+      </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
+      <c r="A5" t="s" s="0">
         <v>3</v>
       </c>
+      <c r="B5" t="s" s="0">
+        <v>8</v>
+      </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
+      <c r="A6" t="s" s="0">
         <v>4</v>
       </c>
+      <c r="B6" t="s" s="0">
+        <v>8</v>
+      </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
+      <c r="A7" t="s" s="0">
         <v>5</v>
       </c>
+      <c r="B7" t="s" s="0">
+        <v>8</v>
+      </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A8" t="s">
+      <c r="A8" t="s" s="0">
         <v>7</v>
+      </c>
+      <c r="B8" t="s" s="0">
+        <v>8</v>
       </c>
     </row>
   </sheetData>

--- a/Flipcart_EndToEnd_Testing/src/test/resources/TestData/TestData.xlsx
+++ b/Flipcart_EndToEnd_Testing/src/test/resources/TestData/TestData.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16428" windowHeight="7536"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16260" windowHeight="7536"/>
   </bookViews>
   <sheets>
     <sheet name="TestData" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="9">
   <si>
     <t>Mobile</t>
   </si>
@@ -53,8 +53,17 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <numFmts count="0"/>
-  <fonts count="1" x14ac:knownFonts="1">
+  <numFmts count="1">
+    <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
+  </numFmts>
+  <fonts count="2" x14ac:knownFonts="1">
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -80,13 +89,16 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Comma" xfId="1" builtinId="3"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -368,12 +380,12 @@
   <dimension ref="A1:B8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H10" sqref="H10"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" t="s" s="0">
         <v>6</v>
       </c>
@@ -381,7 +393,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" t="s" s="0">
         <v>0</v>
       </c>
@@ -389,7 +401,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" t="s" s="0">
         <v>1</v>
       </c>
@@ -397,7 +409,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" t="s" s="0">
         <v>2</v>
       </c>
@@ -405,7 +417,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" t="s" s="0">
         <v>3</v>
       </c>
@@ -413,7 +425,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" t="s" s="0">
         <v>4</v>
       </c>
@@ -421,7 +433,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" t="s" s="0">
         <v>5</v>
       </c>
@@ -429,11 +441,11 @@
         <v>8</v>
       </c>
     </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8" t="s" s="0">
         <v>7</v>
       </c>
-      <c r="B8" t="s" s="0">
+      <c r="B8" s="1" t="s">
         <v>8</v>
       </c>
     </row>
